--- a/biology/Botanique/Phacaceae/Phacaceae.xlsx
+++ b/biology/Botanique/Phacaceae/Phacaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phacaceae sont une famille de flagellés de l'ordre des Euglenida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Phacus, dérivé du grec  φακός / phacos, lentille, en référence à la forme de cet organisme unicellulaire.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Discoplastis Triemer, 2006
 Lepocinclis Perty, 1849
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Jong Im Kim, Woongghi Shin et Richard E. Triemer, « Multigene analyses of photosynthetic euglenoids and new family, Phacaceae (Euglenales) », Journal of Phycology, vol. 46, no 6,‎ décembre 2010, p. 1278–1287 (DOI 10.1111/j.1529-8817.2010.00910.x, lire en ligne, consulté le 13 septembre 2020)
 </t>
